--- a/biology/Zoologie/Dasylabris/Dasylabris.xlsx
+++ b/biology/Zoologie/Dasylabris/Dasylabris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasylabris est un genre d'insectes hyménoptères de la famille des Mutillidae. Ses espèces sont communément appelées « fourmi de velours » en raison de leur apparence intermédiaire entre les fourmis (par leur forme allongée) et les guêpes (par leur pilosité).
 Dans les espèces de cette famille rencontrées en Europe, les mâles sont ailés alors que les femelles sont aptères.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (18 septembre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 septembre 2021) :
 Dasylabris adversa Skorikov, 1935
 Dasylabris angelae Suárez, 1959
 Dasylabris atrata (Linnaeus, 1767)
